--- a/parameters/inp_par_dmc.xlsx
+++ b/parameters/inp_par_dmc.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcoomes/Dropbox/HIV modeling/HIV-syphilis-hbv model/parameters/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcoomes/repos/hiv_syphilis_hbv_model/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7F3614C-D6AC-E14D-B000-EFB4A62FBFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE97D0C-E980-9E4E-8861-5C2A3921BE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1660" yWindow="760" windowWidth="27640" windowHeight="16940" xr2:uid="{754DE57E-8490-E64C-A72A-B0E2176D4FB0}"/>
+    <workbookView xWindow="1780" yWindow="760" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{754DE57E-8490-E64C-A72A-B0E2176D4FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="pop_characteristics" sheetId="1" r:id="rId1"/>
     <sheet name="test_characteristics" sheetId="2" r:id="rId2"/>
+    <sheet name="adult_model_characteristics" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="430">
   <si>
     <t>model</t>
   </si>
@@ -1240,13 +1241,100 @@
   </si>
   <si>
     <t>rdt_sens_hiv_a</t>
+  </si>
+  <si>
+    <t>Annual syphilis testing rate for non-pregnant women</t>
+  </si>
+  <si>
+    <t>syph_test_prob</t>
+  </si>
+  <si>
+    <t>hiv_inc</t>
+  </si>
+  <si>
+    <t>UNAIDS</t>
+  </si>
+  <si>
+    <t>https://www.unaids.org/en/regionscountries/countries/kenya</t>
+  </si>
+  <si>
+    <t>Annual HIV incidence rate (adults aged 15-49)</t>
+  </si>
+  <si>
+    <t>Annual HIV incidence rate (women aged 15-49)</t>
+  </si>
+  <si>
+    <t>hiv_inc_female</t>
+  </si>
+  <si>
+    <t>Annual HIV incidence rate (men aged 15-49)</t>
+  </si>
+  <si>
+    <t>hiv_inc_male</t>
+  </si>
+  <si>
+    <t>Calculated as weighted average of male and female incident infections on incidence rate</t>
+  </si>
+  <si>
+    <t>pct_ART</t>
+  </si>
+  <si>
+    <t>supp_vl</t>
+  </si>
+  <si>
+    <t>% of PLWH on ART</t>
+  </si>
+  <si>
+    <t>% of PLWH virally suppressed</t>
+  </si>
+  <si>
+    <t>% of women living with HIV on ART</t>
+  </si>
+  <si>
+    <t>pct_ART_female</t>
+  </si>
+  <si>
+    <t>Adult screening rate</t>
+  </si>
+  <si>
+    <t>adult_screen_hiv</t>
+  </si>
+  <si>
+    <t>Maternal model</t>
+  </si>
+  <si>
+    <t>General population model</t>
+  </si>
+  <si>
+    <t>HIV_Syphilis_Dual</t>
+  </si>
+  <si>
+    <t>adult_pop</t>
+  </si>
+  <si>
+    <t>Adult population (adults aged 15-64)</t>
+  </si>
+  <si>
+    <t>HIV prevalence</t>
+  </si>
+  <si>
+    <t>hiv_prev_adult</t>
+  </si>
+  <si>
+    <t>HIV incidence reduction due to ART use</t>
+  </si>
+  <si>
+    <t>https://pmc.ncbi.nlm.nih.gov/articles/PMC5049503/</t>
+  </si>
+  <si>
+    <t>hiv_red_ART</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1383,6 +1471,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1697,7 +1793,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1740,8 +1836,9 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1749,8 +1846,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1784,6 +1882,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -2124,10 +2223,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E74D272-9445-3049-81AC-6093333D4DBD}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:M236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
-      <selection activeCell="H190" sqref="H190"/>
+    <sheetView topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="D159" sqref="D159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5530,6 +5630,9 @@
       <c r="E115" t="s">
         <v>48</v>
       </c>
+      <c r="F115" t="s">
+        <v>49</v>
+      </c>
       <c r="G115">
         <v>4.4000000000000003E-3</v>
       </c>
@@ -8109,10 +8212,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9493A486-73AE-4849-B9D6-E454460A1CA7}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8766,4 +8870,377 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D20474-A433-3B45-BD81-C94AF5EBE7BE}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="52.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>328</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>420</v>
+      </c>
+      <c r="E2" t="s">
+        <v>401</v>
+      </c>
+      <c r="F2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>328</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>420</v>
+      </c>
+      <c r="E3" t="s">
+        <v>406</v>
+      </c>
+      <c r="F3" t="s">
+        <v>403</v>
+      </c>
+      <c r="G3">
+        <f>0.53/1000</f>
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="H3">
+        <v>3.2000000000000003E-4</v>
+      </c>
+      <c r="I3">
+        <v>8.3000000000000001E-4</v>
+      </c>
+      <c r="J3">
+        <v>2024</v>
+      </c>
+      <c r="K3" t="s">
+        <v>404</v>
+      </c>
+      <c r="L3" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>420</v>
+      </c>
+      <c r="E4" t="s">
+        <v>407</v>
+      </c>
+      <c r="F4" t="s">
+        <v>408</v>
+      </c>
+      <c r="G4">
+        <f>0.00053 * (11000 / (11000+4600)) * 2</f>
+        <v>7.4743589743589748E-4</v>
+      </c>
+      <c r="J4">
+        <v>2024</v>
+      </c>
+      <c r="K4" t="s">
+        <v>404</v>
+      </c>
+      <c r="L4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F5" t="s">
+        <v>410</v>
+      </c>
+      <c r="G5">
+        <f>0.00053 * (4600 / (11000+4600)) * 2</f>
+        <v>3.1256410256410254E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" t="s">
+        <v>328</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>420</v>
+      </c>
+      <c r="E6" t="s">
+        <v>414</v>
+      </c>
+      <c r="F6" t="s">
+        <v>412</v>
+      </c>
+      <c r="G6">
+        <v>0.87</v>
+      </c>
+      <c r="H6">
+        <v>0.78</v>
+      </c>
+      <c r="I6">
+        <v>0.97</v>
+      </c>
+      <c r="J6">
+        <v>2024</v>
+      </c>
+      <c r="K6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>328</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G7">
+        <v>0.9</v>
+      </c>
+      <c r="H7">
+        <v>0.8</v>
+      </c>
+      <c r="I7">
+        <v>0.98</v>
+      </c>
+      <c r="J7">
+        <v>2024</v>
+      </c>
+      <c r="K7" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>328</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E8" t="s">
+        <v>415</v>
+      </c>
+      <c r="F8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G8">
+        <v>0.83</v>
+      </c>
+      <c r="H8">
+        <v>0.74</v>
+      </c>
+      <c r="I8">
+        <v>0.95</v>
+      </c>
+      <c r="J8">
+        <v>2024</v>
+      </c>
+      <c r="K8" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>420</v>
+      </c>
+      <c r="E9" t="s">
+        <v>418</v>
+      </c>
+      <c r="F9" t="s">
+        <v>419</v>
+      </c>
+      <c r="G9">
+        <v>0.8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>422</v>
+      </c>
+      <c r="B10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D10" t="s">
+        <v>421</v>
+      </c>
+      <c r="E10" t="s">
+        <v>424</v>
+      </c>
+      <c r="F10" t="s">
+        <v>423</v>
+      </c>
+      <c r="G10">
+        <v>33971376</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>328</v>
+      </c>
+      <c r="D11" t="s">
+        <v>421</v>
+      </c>
+      <c r="E11" t="s">
+        <v>425</v>
+      </c>
+      <c r="F11" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>421</v>
+      </c>
+      <c r="E12" t="s">
+        <v>427</v>
+      </c>
+      <c r="F12" t="s">
+        <v>429</v>
+      </c>
+      <c r="G12">
+        <v>0.93</v>
+      </c>
+      <c r="H12">
+        <v>0.78</v>
+      </c>
+      <c r="I12">
+        <v>0.98</v>
+      </c>
+      <c r="J12">
+        <v>2016</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>428</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K12" r:id="rId1" xr:uid="{DC91DADF-43FA-B041-95AE-EE9D543D2F82}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/parameters/inp_par_dmc.xlsx
+++ b/parameters/inp_par_dmc.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcoomes/repos/hiv_syphilis_hbv_model/parameters/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE97D0C-E980-9E4E-8861-5C2A3921BE34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0944AD2F-1AF5-414C-85D5-3C282E529639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="760" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{754DE57E-8490-E64C-A72A-B0E2176D4FB0}"/>
+    <workbookView xWindow="-36400" yWindow="-540" windowWidth="27640" windowHeight="16940" xr2:uid="{754DE57E-8490-E64C-A72A-B0E2176D4FB0}"/>
   </bookViews>
   <sheets>
     <sheet name="pop_characteristics" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1685" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1710" uniqueCount="438">
   <si>
     <t>model</t>
   </si>
@@ -1328,6 +1328,30 @@
   </si>
   <si>
     <t>hiv_red_ART</t>
+  </si>
+  <si>
+    <t>Previous syphilis infection</t>
+  </si>
+  <si>
+    <t>previous_syph_prev</t>
+  </si>
+  <si>
+    <t>Probability of syphilis-HIV coinfection</t>
+  </si>
+  <si>
+    <t>prob_syph_hiv_coinf</t>
+  </si>
+  <si>
+    <t>This makes a huge difference</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>syp_trep_pos</t>
+  </si>
+  <si>
+    <t>% of women that will test positive on treponemal test</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1676,6 +1700,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -1838,7 +1868,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1847,6 +1877,7 @@
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1904,6 +1935,35 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F1BC1C31-FF66-AE4A-B67E-A782BADCE7DE}" name="Table1" displayName="Table1" ref="A1:N237" totalsRowShown="0">
+  <autoFilter ref="A1:N237" xr:uid="{F1BC1C31-FF66-AE4A-B67E-A782BADCE7DE}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Kenya"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{781A2F48-0367-3A4F-9524-E1731F2B464C}" name="model"/>
+    <tableColumn id="2" xr3:uid="{EDF25141-D29A-7149-A813-80C72DD2D1E9}" name="country"/>
+    <tableColumn id="3" xr3:uid="{A5236270-86D4-824A-AC26-5C7D89FB5512}" name="target_pop"/>
+    <tableColumn id="4" xr3:uid="{C3016AB0-E74A-E34D-A0E7-969488D4D181}" name="par_cat"/>
+    <tableColumn id="5" xr3:uid="{B8A196E4-F095-794E-A007-B4BAFBC52A61}" name="par_des"/>
+    <tableColumn id="6" xr3:uid="{58155B29-F701-2A4B-B974-6F2EE42D3966}" name="var_name"/>
+    <tableColumn id="7" xr3:uid="{185AAC56-03FB-7347-BDFE-94ACA4CED7DC}" name="value"/>
+    <tableColumn id="8" xr3:uid="{3EFA3A21-2954-2E45-A4BB-4FFA4F21F7BF}" name="value_lb"/>
+    <tableColumn id="9" xr3:uid="{C23B7AFB-0F6F-374C-9E86-51276D6F37F1}" name="value_ub"/>
+    <tableColumn id="10" xr3:uid="{D45E136D-0AA3-A242-B4EC-035D2FB8B465}" name="year"/>
+    <tableColumn id="11" xr3:uid="{84449966-C535-ED44-B4AC-68C4FD49EAC9}" name="source"/>
+    <tableColumn id="12" xr3:uid="{AB35D724-EA7C-8A4B-919F-76E84929BE5F}" name="notes"/>
+    <tableColumn id="13" xr3:uid="{DFDF4B22-CFA7-BF4B-9666-77AF01517EE6}" name="Prioritization"/>
+    <tableColumn id="14" xr3:uid="{6B4B4AEB-C060-8F44-918A-A17D65E53955}" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2224,19 +2284,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E74D272-9445-3049-81AC-6093333D4DBD}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:M236"/>
+  <dimension ref="A1:N237"/>
   <sheetViews>
-    <sheetView topLeftCell="A139" workbookViewId="0">
-      <selection activeCell="D159" sqref="D159"/>
+    <sheetView tabSelected="1" topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="G195" sqref="G195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
     <col min="5" max="5" width="52.83203125" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2276,8 +2338,11 @@
       <c r="M1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2312,7 +2377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2347,7 +2412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2382,7 +2447,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2417,7 +2482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -2452,7 +2517,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2487,7 +2552,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -2522,7 +2587,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -2557,7 +2622,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2592,7 +2657,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2627,7 +2692,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -2662,7 +2727,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -2697,7 +2762,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2732,7 +2797,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -2767,7 +2832,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -2802,7 +2867,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -2834,7 +2899,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -2866,7 +2931,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2901,7 +2966,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -2936,7 +3001,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2971,7 +3036,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -3006,7 +3071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -3041,7 +3106,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -3076,7 +3141,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3111,7 +3176,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3146,7 +3211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3181,7 +3246,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -3216,7 +3281,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -3248,7 +3313,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -3283,7 +3348,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -3318,7 +3383,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -3353,7 +3418,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -3388,7 +3453,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -3423,7 +3488,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -3458,7 +3523,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -3493,7 +3558,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -3528,7 +3593,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -3563,7 +3628,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>13</v>
       </c>
@@ -3598,7 +3663,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>13</v>
       </c>
@@ -3636,7 +3701,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>13</v>
       </c>
@@ -3671,7 +3736,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>13</v>
       </c>
@@ -3700,7 +3765,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>13</v>
       </c>
@@ -3729,7 +3794,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>13</v>
       </c>
@@ -3758,7 +3823,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>13</v>
       </c>
@@ -3784,7 +3849,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>13</v>
       </c>
@@ -3813,7 +3878,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -3839,7 +3904,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -3865,7 +3930,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -3891,7 +3956,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -3917,7 +3982,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -3943,7 +4008,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -3969,7 +4034,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -3995,7 +4060,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -4018,7 +4083,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>13</v>
       </c>
@@ -4041,7 +4106,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>13</v>
       </c>
@@ -4064,7 +4129,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>13</v>
       </c>
@@ -4087,7 +4152,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>13</v>
       </c>
@@ -4110,7 +4175,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>13</v>
       </c>
@@ -4133,7 +4198,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -4156,7 +4221,7 @@
         <v>2.8699999999999998E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>13</v>
       </c>
@@ -4182,7 +4247,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>13</v>
       </c>
@@ -4208,7 +4273,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -4234,7 +4299,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -4260,7 +4325,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>13</v>
       </c>
@@ -4286,7 +4351,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>13</v>
       </c>
@@ -4312,7 +4377,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>13</v>
       </c>
@@ -4338,7 +4403,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>13</v>
       </c>
@@ -4364,7 +4429,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>13</v>
       </c>
@@ -4390,7 +4455,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>13</v>
       </c>
@@ -4416,7 +4481,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>13</v>
       </c>
@@ -4442,7 +4507,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>13</v>
       </c>
@@ -4468,7 +4533,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>13</v>
       </c>
@@ -4497,7 +4562,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>13</v>
       </c>
@@ -4523,7 +4588,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>13</v>
       </c>
@@ -4549,7 +4614,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>13</v>
       </c>
@@ -4575,7 +4640,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>13</v>
       </c>
@@ -4601,7 +4666,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>13</v>
       </c>
@@ -4627,7 +4692,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>13</v>
       </c>
@@ -4653,7 +4718,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>13</v>
       </c>
@@ -4679,7 +4744,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>13</v>
       </c>
@@ -4705,7 +4770,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>13</v>
       </c>
@@ -4731,7 +4796,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>13</v>
       </c>
@@ -4757,7 +4822,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>13</v>
       </c>
@@ -4783,7 +4848,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>13</v>
       </c>
@@ -4809,7 +4874,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>13</v>
       </c>
@@ -4835,7 +4900,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>13</v>
       </c>
@@ -4867,7 +4932,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -4899,7 +4964,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>13</v>
       </c>
@@ -4931,7 +4996,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>13</v>
       </c>
@@ -4963,7 +5028,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>13</v>
       </c>
@@ -4995,7 +5060,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>13</v>
       </c>
@@ -5027,7 +5092,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>13</v>
       </c>
@@ -5059,7 +5124,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>13</v>
       </c>
@@ -5091,7 +5156,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>13</v>
       </c>
@@ -5123,7 +5188,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>13</v>
       </c>
@@ -5155,7 +5220,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>13</v>
       </c>
@@ -5187,7 +5252,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>13</v>
       </c>
@@ -5216,7 +5281,7 @@
         <v>0.72</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>13</v>
       </c>
@@ -5248,7 +5313,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>13</v>
       </c>
@@ -5280,7 +5345,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>13</v>
       </c>
@@ -5312,7 +5377,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>13</v>
       </c>
@@ -5338,7 +5403,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>13</v>
       </c>
@@ -5361,7 +5426,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>13</v>
       </c>
@@ -5384,7 +5449,7 @@
         <v>1631470</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>13</v>
       </c>
@@ -5403,11 +5468,14 @@
       <c r="F105" t="s">
         <v>20</v>
       </c>
-      <c r="G105">
-        <v>6.0999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G105" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="M105" s="6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>13</v>
       </c>
@@ -5426,11 +5494,11 @@
       <c r="F106" t="s">
         <v>23</v>
       </c>
-      <c r="G106">
-        <v>1.24E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="G106" s="6">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>13</v>
       </c>
@@ -5444,16 +5512,16 @@
         <v>16</v>
       </c>
       <c r="E107" t="s">
-        <v>25</v>
+        <v>437</v>
       </c>
       <c r="F107" t="s">
-        <v>26</v>
-      </c>
-      <c r="G107">
-        <v>0.83950619999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+        <v>436</v>
+      </c>
+      <c r="G107" s="6">
+        <v>3.2000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>13</v>
       </c>
@@ -5467,39 +5535,45 @@
         <v>16</v>
       </c>
       <c r="E108" t="s">
+        <v>25</v>
+      </c>
+      <c r="F108" t="s">
+        <v>26</v>
+      </c>
+      <c r="G108">
+        <v>0.83950619999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>328</v>
+      </c>
+      <c r="C109" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" t="s">
+        <v>16</v>
+      </c>
+      <c r="E109" t="s">
         <v>28</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F109" t="s">
         <v>29</v>
       </c>
-      <c r="G108">
+      <c r="G109" s="6">
         <v>0.56999999999999995</v>
       </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>13</v>
-      </c>
-      <c r="B109" t="s">
-        <v>328</v>
-      </c>
-      <c r="C109" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" t="s">
-        <v>30</v>
-      </c>
-      <c r="E109" t="s">
-        <v>31</v>
-      </c>
-      <c r="F109" t="s">
-        <v>32</v>
-      </c>
-      <c r="G109">
-        <v>0.70489999999999997</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="M109" s="6">
+        <v>0.94199999999999995</v>
+      </c>
+      <c r="N109" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>13</v>
       </c>
@@ -5513,16 +5587,16 @@
         <v>30</v>
       </c>
       <c r="E110" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G110">
-        <v>3.3076919999999998E-4</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+        <v>0.70489999999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>13</v>
       </c>
@@ -5536,16 +5610,16 @@
         <v>30</v>
       </c>
       <c r="E111" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G111">
         <v>3.3076919999999998E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>13</v>
       </c>
@@ -5559,13 +5633,13 @@
         <v>30</v>
       </c>
       <c r="E112" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G112">
-        <v>0</v>
+        <v>3.3076919999999998E-4</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
@@ -5582,13 +5656,13 @@
         <v>30</v>
       </c>
       <c r="E113" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G113">
-        <v>2.6923080000000002E-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
@@ -5605,10 +5679,10 @@
         <v>30</v>
       </c>
       <c r="E114" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F114" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G114">
         <v>2.6923080000000002E-4</v>
@@ -5625,16 +5699,16 @@
         <v>15</v>
       </c>
       <c r="D115" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="E115" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="G115">
-        <v>4.4000000000000003E-3</v>
+        <v>2.6923080000000002E-4</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
@@ -5651,13 +5725,13 @@
         <v>47</v>
       </c>
       <c r="E116" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F116" t="s">
-        <v>52</v>
-      </c>
-      <c r="G116" s="1" t="s">
-        <v>341</v>
+        <v>49</v>
+      </c>
+      <c r="G116">
+        <v>4.4000000000000003E-3</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
@@ -5674,13 +5748,13 @@
         <v>47</v>
       </c>
       <c r="E117" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F117" t="s">
-        <v>55</v>
-      </c>
-      <c r="G117">
-        <v>0.52900000000000003</v>
+        <v>52</v>
+      </c>
+      <c r="G117" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
@@ -5694,16 +5768,16 @@
         <v>15</v>
       </c>
       <c r="D118" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E118" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F118" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G118">
-        <v>22</v>
+        <v>0.52900000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
@@ -5720,13 +5794,13 @@
         <v>57</v>
       </c>
       <c r="E119" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F119" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G119">
-        <v>33</v>
+        <v>22</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
@@ -5743,13 +5817,13 @@
         <v>57</v>
       </c>
       <c r="E120" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F120" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G120">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
@@ -5766,13 +5840,13 @@
         <v>57</v>
       </c>
       <c r="E121" t="s">
-        <v>375</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>370</v>
+        <v>63</v>
+      </c>
+      <c r="F121" t="s">
+        <v>64</v>
       </c>
       <c r="G121">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
@@ -5789,13 +5863,13 @@
         <v>57</v>
       </c>
       <c r="E122" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G122">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
@@ -5812,13 +5886,13 @@
         <v>57</v>
       </c>
       <c r="E123" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G123">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
@@ -5835,13 +5909,13 @@
         <v>57</v>
       </c>
       <c r="E124" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G124">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
@@ -5858,13 +5932,13 @@
         <v>57</v>
       </c>
       <c r="E125" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G125">
-        <v>53</v>
+        <v>39</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -5878,16 +5952,16 @@
         <v>15</v>
       </c>
       <c r="D126" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E126" t="s">
-        <v>66</v>
-      </c>
-      <c r="F126" t="s">
-        <v>67</v>
+        <v>379</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="G126">
-        <v>0.96</v>
+        <v>53</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -5904,13 +5978,13 @@
         <v>65</v>
       </c>
       <c r="E127" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F127" t="s">
-        <v>70</v>
-      </c>
-      <c r="G127">
-        <v>0.92700000000000005</v>
+        <v>67</v>
+      </c>
+      <c r="G127" s="6">
+        <v>0.97899999999999998</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
@@ -5927,13 +6001,13 @@
         <v>65</v>
       </c>
       <c r="E128" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F128" t="s">
-        <v>72</v>
-      </c>
-      <c r="G128">
-        <v>0.61799999999999999</v>
+        <v>70</v>
+      </c>
+      <c r="G128" s="6">
+        <v>0.95099999999999996</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
@@ -5950,13 +6024,13 @@
         <v>65</v>
       </c>
       <c r="E129" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F129" t="s">
-        <v>74</v>
-      </c>
-      <c r="G129">
-        <v>0.96</v>
+        <v>72</v>
+      </c>
+      <c r="G129" s="6">
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
@@ -5973,13 +6047,13 @@
         <v>65</v>
       </c>
       <c r="E130" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F130" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G130">
-        <v>0.88</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
@@ -5996,13 +6070,13 @@
         <v>65</v>
       </c>
       <c r="E131" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F131" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G131">
-        <v>0.86499999999999999</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
@@ -6019,13 +6093,13 @@
         <v>65</v>
       </c>
       <c r="E132" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F132" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G132">
-        <v>0.85</v>
+        <v>0.86499999999999999</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
@@ -6042,13 +6116,13 @@
         <v>65</v>
       </c>
       <c r="E133" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F133" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G133">
-        <v>0.05</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
@@ -6065,13 +6139,13 @@
         <v>65</v>
       </c>
       <c r="E134" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F134" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G134">
-        <v>0.97799999999999998</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
@@ -6088,13 +6162,13 @@
         <v>65</v>
       </c>
       <c r="E135" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F135" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G135">
-        <v>0.73</v>
+        <v>0.97799999999999998</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.2">
@@ -6111,13 +6185,13 @@
         <v>65</v>
       </c>
       <c r="E136" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F136" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G136">
-        <v>0.79753090000000004</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.2">
@@ -6131,16 +6205,16 @@
         <v>15</v>
       </c>
       <c r="D137" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="E137" t="s">
-        <v>135</v>
+        <v>88</v>
       </c>
       <c r="F137" t="s">
-        <v>136</v>
+        <v>89</v>
       </c>
       <c r="G137">
-        <v>0.91</v>
+        <v>0.79753090000000004</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.2">
@@ -6157,13 +6231,13 @@
         <v>134</v>
       </c>
       <c r="E138" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F138" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G138">
-        <v>0.88100000000000001</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
@@ -6180,13 +6254,13 @@
         <v>134</v>
       </c>
       <c r="E139" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F139" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G139">
-        <v>0.73799999999999999</v>
+        <v>0.88100000000000001</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.2">
@@ -6203,13 +6277,13 @@
         <v>134</v>
       </c>
       <c r="E140" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F140" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G140">
-        <v>0.99666699999999997</v>
+        <v>0.73799999999999999</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.2">
@@ -6226,13 +6300,13 @@
         <v>134</v>
       </c>
       <c r="E141" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F141" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G141">
-        <v>0.5</v>
+        <v>0.99666699999999997</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.2">
@@ -6249,13 +6323,13 @@
         <v>134</v>
       </c>
       <c r="E142" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F142" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G142">
-        <v>0.625</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.2">
@@ -6269,16 +6343,16 @@
         <v>15</v>
       </c>
       <c r="D143" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
       <c r="E143" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F143" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G143">
-        <v>2.2999999999999998</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.2">
@@ -6295,13 +6369,13 @@
         <v>152</v>
       </c>
       <c r="E144" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F144" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G144">
-        <v>0.7</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.2">
@@ -6318,13 +6392,13 @@
         <v>152</v>
       </c>
       <c r="E145" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F145" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G145">
-        <v>6</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.2">
@@ -6341,13 +6415,13 @@
         <v>152</v>
       </c>
       <c r="E146" t="s">
-        <v>159</v>
-      </c>
-      <c r="F146" s="4" t="s">
-        <v>366</v>
+        <v>157</v>
+      </c>
+      <c r="F146" t="s">
+        <v>158</v>
       </c>
       <c r="G146">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.2">
@@ -6361,16 +6435,16 @@
         <v>15</v>
       </c>
       <c r="D147" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E147" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G147">
-        <v>5.7692307692307704E-5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.2">
@@ -6387,13 +6461,13 @@
         <v>162</v>
       </c>
       <c r="E148" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G148">
-        <v>5.6999999999999998E-4</v>
+        <v>5.7692307692307704E-5</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.2">
@@ -6407,16 +6481,16 @@
         <v>15</v>
       </c>
       <c r="D149" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E149" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F149" s="4" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="G149">
-        <v>1.8632619681443474E-3</v>
+        <v>5.6999999999999998E-4</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.2">
@@ -6433,13 +6507,13 @@
         <v>171</v>
       </c>
       <c r="E150" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G150">
-        <v>1.647390735766141E-2</v>
+        <v>1.8632619681443474E-3</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.2">
@@ -6456,13 +6530,13 @@
         <v>171</v>
       </c>
       <c r="E151" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G151">
-        <v>2.2597897327928607E-2</v>
+        <v>1.647390735766141E-2</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.2">
@@ -6479,13 +6553,13 @@
         <v>171</v>
       </c>
       <c r="E152" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G152">
-        <v>2.9377266526307188E-2</v>
+        <v>2.2597897327928607E-2</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -6502,13 +6576,13 @@
         <v>171</v>
       </c>
       <c r="E153" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G153">
-        <v>5.409557784316843E-3</v>
+        <v>2.9377266526307188E-2</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.2">
@@ -6525,10 +6599,10 @@
         <v>171</v>
       </c>
       <c r="E154" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="G154">
         <v>5.409557784316843E-3</v>
@@ -6548,13 +6622,13 @@
         <v>171</v>
       </c>
       <c r="E155" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F155" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G155">
-        <v>1.998001332666921E-3</v>
+        <v>5.409557784316843E-3</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -6571,13 +6645,13 @@
         <v>171</v>
       </c>
       <c r="E156" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F156" s="4" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G156">
-        <v>5.0000000000000001E-4</v>
+        <v>1.998001332666921E-3</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.2">
@@ -6591,16 +6665,16 @@
         <v>15</v>
       </c>
       <c r="D157" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="E157" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="G157">
-        <v>0.67500000000000004</v>
+        <v>5.0000000000000001E-4</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.2">
@@ -6617,13 +6691,13 @@
         <v>193</v>
       </c>
       <c r="E158" t="s">
-        <v>197</v>
-      </c>
-      <c r="F158" t="s">
-        <v>198</v>
+        <v>194</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="G158">
-        <v>0.95</v>
+        <v>0.67500000000000004</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.2">
@@ -6640,13 +6714,13 @@
         <v>193</v>
       </c>
       <c r="E159" t="s">
-        <v>200</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>351</v>
+        <v>197</v>
+      </c>
+      <c r="F159" t="s">
+        <v>198</v>
       </c>
       <c r="G159">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.2">
@@ -6660,16 +6734,16 @@
         <v>15</v>
       </c>
       <c r="D160" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="E160" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G160">
-        <v>0.93582446808510644</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
@@ -6686,13 +6760,13 @@
         <v>202</v>
       </c>
       <c r="E161" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F161" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G161">
-        <v>2.5000000000000001E-2</v>
+        <v>0.93582446808510644</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
@@ -6709,13 +6783,13 @@
         <v>202</v>
       </c>
       <c r="E162" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F162" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G162">
-        <v>1E-3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
@@ -6732,13 +6806,13 @@
         <v>202</v>
       </c>
       <c r="E163" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G163">
-        <v>0.21199999999999999</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
@@ -6755,13 +6829,13 @@
         <v>202</v>
       </c>
       <c r="E164" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G164">
-        <v>5.7999999999999996E-3</v>
+        <v>0.21199999999999999</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
@@ -6778,13 +6852,13 @@
         <v>202</v>
       </c>
       <c r="E165" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G165">
-        <v>0.33400000000000002</v>
+        <v>5.7999999999999996E-3</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
@@ -6801,13 +6875,13 @@
         <v>202</v>
       </c>
       <c r="E166" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G166">
-        <v>8.9999999999999993E-3</v>
+        <v>0.33400000000000002</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
@@ -6821,16 +6895,16 @@
         <v>15</v>
       </c>
       <c r="D167" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="E167" t="s">
-        <v>218</v>
-      </c>
-      <c r="F167" t="s">
-        <v>219</v>
+        <v>215</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>358</v>
       </c>
       <c r="G167">
-        <v>2.8699999999999998E-4</v>
+        <v>8.9999999999999993E-3</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
@@ -6847,13 +6921,13 @@
         <v>217</v>
       </c>
       <c r="E168" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F168" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G168">
-        <v>3.78E-2</v>
+        <v>2.8699999999999998E-4</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
@@ -6870,13 +6944,13 @@
         <v>217</v>
       </c>
       <c r="E169" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F169" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G169">
-        <v>1.7999999999999999E-2</v>
+        <v>3.78E-2</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
@@ -6893,13 +6967,13 @@
         <v>217</v>
       </c>
       <c r="E170" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F170" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G170">
-        <v>2.1600000000000001E-2</v>
+        <v>1.7999999999999999E-2</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
@@ -6916,13 +6990,13 @@
         <v>217</v>
       </c>
       <c r="E171" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F171" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G171">
-        <v>4.4999999999999997E-3</v>
+        <v>2.1600000000000001E-2</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
@@ -6939,13 +7013,13 @@
         <v>217</v>
       </c>
       <c r="E172" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F172" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G172">
-        <v>0.21</v>
+        <v>4.4999999999999997E-3</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
@@ -6962,13 +7036,13 @@
         <v>217</v>
       </c>
       <c r="E173" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F173" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G173">
-        <v>0.09</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
@@ -6985,13 +7059,13 @@
         <v>217</v>
       </c>
       <c r="E174" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F174" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G174">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
@@ -7008,13 +7082,13 @@
         <v>217</v>
       </c>
       <c r="E175" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F175" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G175">
-        <v>0.15</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
@@ -7031,13 +7105,13 @@
         <v>217</v>
       </c>
       <c r="E176" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F176" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="G176">
-        <v>32</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.2">
@@ -7051,16 +7125,16 @@
         <v>15</v>
       </c>
       <c r="D177" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="E177" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F177" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G177">
-        <v>4.9011239999999998E-3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.2">
@@ -7077,13 +7151,13 @@
         <v>240</v>
       </c>
       <c r="E178" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F178" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G178">
-        <v>3.0865999999999999E-4</v>
+        <v>4.9011239999999998E-3</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.2">
@@ -7100,13 +7174,13 @@
         <v>240</v>
       </c>
       <c r="E179" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F179" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G179">
-        <v>0.64800000000000002</v>
+        <v>3.0865999999999999E-4</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.2">
@@ -7123,13 +7197,13 @@
         <v>240</v>
       </c>
       <c r="E180" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F180" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G180">
-        <v>0.96350000000000002</v>
+        <v>0.64800000000000002</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.2">
@@ -7143,16 +7217,16 @@
         <v>15</v>
       </c>
       <c r="D181" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="E181" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F181" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G181">
-        <v>66.650000000000006</v>
+        <v>0.96350000000000002</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.2">
@@ -7169,13 +7243,13 @@
         <v>253</v>
       </c>
       <c r="E182" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F182" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G182">
-        <v>68.199999999999989</v>
+        <v>66.650000000000006</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.2">
@@ -7192,13 +7266,13 @@
         <v>253</v>
       </c>
       <c r="E183" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F183" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G183">
-        <v>26.2</v>
+        <v>68.199999999999989</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.2">
@@ -7215,13 +7289,13 @@
         <v>253</v>
       </c>
       <c r="E184" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F184" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G184">
-        <v>0.106</v>
+        <v>26.2</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.2">
@@ -7238,13 +7312,13 @@
         <v>253</v>
       </c>
       <c r="E185" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F185" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G185">
-        <v>0.315</v>
+        <v>0.106</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.2">
@@ -7261,13 +7335,13 @@
         <v>253</v>
       </c>
       <c r="E186" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F186" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G186">
-        <v>0.27400000000000002</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.2">
@@ -7284,13 +7358,13 @@
         <v>253</v>
       </c>
       <c r="E187" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F187" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G187">
-        <v>7.8E-2</v>
+        <v>0.27400000000000002</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.2">
@@ -7307,13 +7381,13 @@
         <v>253</v>
       </c>
       <c r="E188" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F188" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G188">
-        <v>0.58199999999999996</v>
+        <v>7.8E-2</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.2">
@@ -7330,13 +7404,13 @@
         <v>253</v>
       </c>
       <c r="E189" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F189" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G189">
-        <v>0.36842999999999998</v>
+        <v>0.58199999999999996</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.2">
@@ -7353,13 +7427,13 @@
         <v>253</v>
       </c>
       <c r="E190" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F190" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G190">
-        <v>0.50268999999999997</v>
+        <v>0.36842999999999998</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.2">
@@ -7379,10 +7453,10 @@
         <v>277</v>
       </c>
       <c r="F191" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G191">
-        <v>0.71367000000000003</v>
+        <v>0.50268999999999997</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.2">
@@ -7399,13 +7473,13 @@
         <v>253</v>
       </c>
       <c r="E192" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="F192" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G192">
-        <v>0.9</v>
+        <v>0.71367000000000003</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.2">
@@ -7422,13 +7496,13 @@
         <v>253</v>
       </c>
       <c r="E193" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F193" t="s">
-        <v>283</v>
-      </c>
-      <c r="G193" t="s">
-        <v>340</v>
+        <v>281</v>
+      </c>
+      <c r="G193">
+        <v>0.9</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.2">
@@ -7442,16 +7516,16 @@
         <v>15</v>
       </c>
       <c r="D194" t="s">
-        <v>284</v>
+        <v>253</v>
       </c>
       <c r="E194" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F194" t="s">
-        <v>286</v>
-      </c>
-      <c r="G194">
-        <v>5.79</v>
+        <v>283</v>
+      </c>
+      <c r="G194" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.2">
@@ -7468,13 +7542,13 @@
         <v>284</v>
       </c>
       <c r="E195" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F195" t="s">
-        <v>289</v>
-      </c>
-      <c r="G195">
-        <v>2.64</v>
+        <v>286</v>
+      </c>
+      <c r="G195" s="6">
+        <v>3.62</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.2">
@@ -7491,13 +7565,13 @@
         <v>284</v>
       </c>
       <c r="E196" t="s">
-        <v>290</v>
-      </c>
-      <c r="F196" s="4" t="s">
-        <v>359</v>
+        <v>288</v>
+      </c>
+      <c r="F196" t="s">
+        <v>289</v>
       </c>
       <c r="G196">
-        <v>3.68</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.2">
@@ -7514,13 +7588,13 @@
         <v>284</v>
       </c>
       <c r="E197" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F197" s="4" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G197">
-        <v>26.39</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.2">
@@ -7537,13 +7611,13 @@
         <v>284</v>
       </c>
       <c r="E198" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F198" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G198">
-        <v>4.8600000000000003</v>
+        <v>26.39</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.2">
@@ -7560,13 +7634,13 @@
         <v>284</v>
       </c>
       <c r="E199" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G199">
-        <v>2.3199999999999998</v>
+        <v>4.8600000000000003</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.2">
@@ -7583,13 +7657,13 @@
         <v>284</v>
       </c>
       <c r="E200" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G200">
-        <v>6.19</v>
+        <v>2.3199999999999998</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.2">
@@ -7606,13 +7680,13 @@
         <v>284</v>
       </c>
       <c r="E201" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F201" s="4" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G201">
-        <v>6.73</v>
+        <v>6.19</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.2">
@@ -7629,10 +7703,10 @@
         <v>284</v>
       </c>
       <c r="E202" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F202" s="4" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G202">
         <v>6.73</v>
@@ -7652,13 +7726,13 @@
         <v>284</v>
       </c>
       <c r="E203" t="s">
-        <v>307</v>
-      </c>
-      <c r="F203" t="s">
-        <v>308</v>
+        <v>305</v>
+      </c>
+      <c r="F203" s="4" t="s">
+        <v>365</v>
       </c>
       <c r="G203">
-        <v>3.09</v>
+        <v>6.73</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.2">
@@ -7675,13 +7749,13 @@
         <v>284</v>
       </c>
       <c r="E204" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F204" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G204">
-        <v>0.59</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.2">
@@ -7698,13 +7772,13 @@
         <v>284</v>
       </c>
       <c r="E205" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F205" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G205">
-        <v>0.64</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.2">
@@ -7721,13 +7795,13 @@
         <v>284</v>
       </c>
       <c r="E206" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F206" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G206">
-        <v>1.42</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.2">
@@ -7744,13 +7818,13 @@
         <v>284</v>
       </c>
       <c r="E207" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F207" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G207">
-        <v>8.41</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.2">
@@ -7767,13 +7841,13 @@
         <v>284</v>
       </c>
       <c r="E208" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F208" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G208">
-        <v>85.52</v>
+        <v>8.41</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.2">
@@ -7787,16 +7861,16 @@
         <v>15</v>
       </c>
       <c r="D209" t="s">
-        <v>322</v>
+        <v>284</v>
       </c>
       <c r="E209" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F209" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G209">
-        <v>0.03</v>
+        <v>85.52</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.2">
@@ -7810,16 +7884,16 @@
         <v>15</v>
       </c>
       <c r="D210" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="E210" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F210" t="s">
-        <v>384</v>
+        <v>324</v>
       </c>
       <c r="G210">
-        <v>0.84</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.2">
@@ -7833,16 +7907,16 @@
         <v>15</v>
       </c>
       <c r="D211" t="s">
-        <v>380</v>
+        <v>325</v>
       </c>
       <c r="E211" t="s">
-        <v>386</v>
+        <v>326</v>
       </c>
       <c r="F211" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="G211">
-        <v>0.35199999999999998</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.2">
@@ -7859,13 +7933,13 @@
         <v>380</v>
       </c>
       <c r="E212" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F212" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G212">
-        <v>0.52500000000000002</v>
+        <v>0.35199999999999998</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.2">
@@ -7882,13 +7956,13 @@
         <v>380</v>
       </c>
       <c r="E213" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F213" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G213">
-        <v>0.61</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.2">
@@ -7905,13 +7979,13 @@
         <v>380</v>
       </c>
       <c r="E214" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F214" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G214">
-        <v>3.6499999999999998E-2</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.2">
@@ -7928,13 +8002,13 @@
         <v>380</v>
       </c>
       <c r="E215" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="F215" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G215">
-        <v>1.4500000000000001E-2</v>
+        <v>3.6499999999999998E-2</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.2">
@@ -7951,13 +8025,13 @@
         <v>380</v>
       </c>
       <c r="E216" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="F216" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G216">
-        <v>7.0000000000000001E-3</v>
+        <v>1.4500000000000001E-2</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.2">
@@ -7974,13 +8048,13 @@
         <v>380</v>
       </c>
       <c r="E217" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="F217" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G217">
-        <v>5.4999999999999997E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.2">
@@ -7997,32 +8071,44 @@
         <v>380</v>
       </c>
       <c r="E218" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="F218" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G218">
-        <v>9.4999999999999998E-3</v>
+        <v>5.4999999999999997E-3</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>329</v>
+        <v>13</v>
       </c>
       <c r="B219" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="C219" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D219" t="s">
+        <v>380</v>
+      </c>
+      <c r="E219" t="s">
+        <v>393</v>
+      </c>
+      <c r="F219" t="s">
+        <v>397</v>
+      </c>
+      <c r="G219">
+        <v>9.4999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>329</v>
       </c>
       <c r="B220" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="C220" t="s">
         <v>330</v>
@@ -8030,21 +8116,21 @@
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B221" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="C221" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>331</v>
       </c>
       <c r="B222" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="C222" t="s">
         <v>15</v>
@@ -8052,21 +8138,21 @@
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B223" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="C223" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>332</v>
       </c>
       <c r="B224" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="C224" t="s">
         <v>330</v>
@@ -8074,21 +8160,21 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B225" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="C225" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>333</v>
       </c>
       <c r="B226" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="C226" t="s">
         <v>330</v>
@@ -8096,21 +8182,21 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B227" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="C227" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>334</v>
       </c>
       <c r="B228" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="C228" t="s">
         <v>330</v>
@@ -8118,21 +8204,21 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B229" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="C229" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>335</v>
       </c>
       <c r="B230" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="C230" t="s">
         <v>330</v>
@@ -8140,21 +8226,21 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B231" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="C231" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>336</v>
       </c>
       <c r="B232" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="C232" t="s">
         <v>330</v>
@@ -8162,21 +8248,21 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B233" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="C233" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>337</v>
       </c>
       <c r="B234" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="C234" t="s">
         <v>330</v>
@@ -8184,29 +8270,43 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B235" t="s">
-        <v>14</v>
+        <v>328</v>
       </c>
       <c r="C235" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:3" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>338</v>
       </c>
       <c r="B236" t="s">
-        <v>328</v>
+        <v>14</v>
       </c>
       <c r="C236" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>338</v>
+      </c>
+      <c r="B237" t="s">
+        <v>328</v>
+      </c>
+      <c r="C237" t="s">
         <v>330</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -8216,7 +8316,7 @@
   <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8874,10 +8974,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60D20474-A433-3B45-BD81-C94AF5EBE7BE}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9198,8 +9298,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>422</v>
+      </c>
       <c r="B11" t="s">
         <v>328</v>
+      </c>
+      <c r="C11" t="s">
+        <v>330</v>
       </c>
       <c r="D11" t="s">
         <v>421</v>
@@ -9212,6 +9318,15 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B12" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" t="s">
+        <v>330</v>
+      </c>
       <c r="D12" t="s">
         <v>421</v>
       </c>
@@ -9235,6 +9350,52 @@
       </c>
       <c r="K12" s="5" t="s">
         <v>428</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B13" t="s">
+        <v>328</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>420</v>
+      </c>
+      <c r="E13" t="s">
+        <v>430</v>
+      </c>
+      <c r="F13" t="s">
+        <v>431</v>
+      </c>
+      <c r="G13">
+        <v>6.5000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" t="s">
+        <v>328</v>
+      </c>
+      <c r="C14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" t="s">
+        <v>420</v>
+      </c>
+      <c r="E14" t="s">
+        <v>432</v>
+      </c>
+      <c r="F14" t="s">
+        <v>433</v>
+      </c>
+      <c r="G14">
+        <v>3.4</v>
       </c>
     </row>
   </sheetData>
